--- a/medicine/Psychotrope/Brasserie_du_Flo/Brasserie_du_Flo.xlsx
+++ b/medicine/Psychotrope/Brasserie_du_Flo/Brasserie_du_Flo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'ASBL Brasserie artisanale et didactique du Flo est une brasserie belge établie à Blehen (Hannut) en province de Liège.
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Confrérie de Saint-Antoine a sa propre bière depuis 1978 (la Cuvée Saint-Antoine Brune). La bière était d'abord brassée pendant des années à la brasserie du Bocq, ensuite le brassage fut confié à la brasserie Van Steenberge. En décembre 2002, la confrérie fonde sa propre petite brasserie l'ancienne ville de Blehen. L'ASBL se constitue grâce à des subventions accordés par la Région wallonne. Le nom de la brasserie se réfère à au lieu-dit au Flo, qui désigne un endroit marécageux. Didier Cornet (brasseur à la brasserie La Fourmilière et l'ancienne brasserie d'Oleye) est recruté en tant que maître-brasseur. La brasserie produit 500 litres de bière par brassin. L'ASBL, via ses visites, a également une fonction éducative.
 </t>
@@ -543,7 +557,9 @@
           <t>Bières</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cuvée St. Antoine
 Cuvée du Flo
